--- a/notas/Excel_Avances/005_DEFINICION 21.xlsx
+++ b/notas/Excel_Avances/005_DEFINICION 21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GoverSearch_1.0\notas\Excel_Avances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACBFE4A3-5C8A-45D9-B64A-E638E44FB423}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4E174B-F393-43EF-A072-CEB71DC06456}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <sheet name="03_VISTA APP" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -182,12 +181,6 @@
     <t>TERMINOS CLAVE</t>
   </si>
   <si>
-    <t>TBL_ADM_Usuarios</t>
-  </si>
-  <si>
-    <t>TBL_ADM_Roles</t>
-  </si>
-  <si>
     <t>TBL_ADM_Permiso</t>
   </si>
   <si>
@@ -607,6 +600,12 @@
   </si>
   <si>
     <t>requerido</t>
+  </si>
+  <si>
+    <t>tbl_adm_usuarios</t>
+  </si>
+  <si>
+    <t>tbl_adm_roles</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1260,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1467,42 +1466,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1514,6 +1477,45 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2358,8 +2360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="F11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,16 +2437,16 @@
         <v>42</v>
       </c>
       <c r="G3" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="I3" s="127" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="129"/>
+        <v>163</v>
+      </c>
+      <c r="I3" s="132" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="134"/>
     </row>
     <row r="4" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="118"/>
@@ -2464,31 +2466,31 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="J5" s="121" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K5" s="69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L5" s="69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M5" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="N5" s="139" t="s">
-        <v>188</v>
+        <v>185</v>
+      </c>
+      <c r="N5" s="127" t="s">
+        <v>186</v>
       </c>
       <c r="O5" s="69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P5" s="69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R5" s="122" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2499,40 +2501,40 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="69" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="G6" s="70">
         <v>1</v>
       </c>
       <c r="I6" s="71" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J6" s="72" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="72" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L6" s="73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M6" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="N6" s="140" t="s">
-        <v>87</v>
+        <v>77</v>
+      </c>
+      <c r="N6" s="128" t="s">
+        <v>85</v>
       </c>
       <c r="O6" s="73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P6" s="73" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R6" s="74" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2544,18 +2546,18 @@
         <v>1</v>
       </c>
       <c r="J7" s="76" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K7" s="76"/>
       <c r="L7" s="76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M7" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="N7" s="141"/>
+        <v>78</v>
+      </c>
+      <c r="N7" s="129"/>
       <c r="O7" s="76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P7" s="78">
         <v>44286</v>
@@ -2577,20 +2579,20 @@
         <v>2</v>
       </c>
       <c r="J8" s="81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K8" s="81">
         <v>123</v>
       </c>
       <c r="L8" s="81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M8" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="N8" s="142"/>
+        <v>165</v>
+      </c>
+      <c r="N8" s="130"/>
       <c r="O8" s="81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P8" s="83">
         <v>44288</v>
@@ -2617,10 +2619,10 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="J10" s="121" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K10" s="122" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2629,21 +2631,21 @@
       <c r="D11" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69" t="s">
-        <v>48</v>
+      <c r="E11" s="144"/>
+      <c r="F11" s="146" t="s">
+        <v>188</v>
       </c>
       <c r="G11" s="70">
         <v>1</v>
       </c>
       <c r="I11" s="85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J11" s="86" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K11" s="87" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2655,10 +2657,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="79" t="s">
         <v>55</v>
-      </c>
-      <c r="K12" s="79" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2670,10 +2672,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="84" t="s">
         <v>56</v>
-      </c>
-      <c r="K13" s="84" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2691,8 +2693,8 @@
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="143" t="s">
-        <v>187</v>
+      <c r="J15" s="131" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2703,16 +2705,16 @@
       </c>
       <c r="E16" s="68"/>
       <c r="F16" s="69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G16" s="70">
         <v>0</v>
       </c>
       <c r="I16" s="85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J16" s="87" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -2724,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="79" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2736,7 +2738,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="84" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2753,22 +2755,22 @@
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="J20" s="121" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K20" s="69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L20" s="69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M20" s="69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N20" s="69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O20" s="122" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2779,31 +2781,31 @@
       </c>
       <c r="E21" s="68"/>
       <c r="F21" s="69" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G21" s="70">
         <v>1</v>
       </c>
       <c r="I21" s="85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J21" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="73" t="s">
+      <c r="M21" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="L21" s="73" t="s">
+      <c r="N21" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="M21" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="N21" s="87" t="s">
-        <v>65</v>
-      </c>
       <c r="O21" s="87" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -2818,7 +2820,7 @@
       <c r="M22" s="89"/>
       <c r="N22" s="90"/>
       <c r="O22" s="79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2833,7 +2835,7 @@
       <c r="M23" s="92"/>
       <c r="N23" s="93"/>
       <c r="O23" s="84" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2857,10 +2859,10 @@
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="J25" s="121" t="s">
-        <v>187</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
+      </c>
+      <c r="K25" s="122" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2869,7 +2871,7 @@
       <c r="D26" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="68"/>
+      <c r="E26" s="144"/>
       <c r="F26" s="69" t="s">
         <v>43</v>
       </c>
@@ -2877,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="I26" s="85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J26" s="94" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K26" s="87" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -2895,10 +2897,10 @@
         <v>1</v>
       </c>
       <c r="J27" s="76" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K27" s="79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2910,13 +2912,13 @@
         <v>2</v>
       </c>
       <c r="J28" s="81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K28" s="84" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -2930,14 +2932,14 @@
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
-      <c r="J30" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>188</v>
+      <c r="J30" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="K30" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="L30" s="122" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2946,7 +2948,7 @@
       <c r="D31" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="68"/>
+      <c r="E31" s="144"/>
       <c r="F31" s="69" t="s">
         <v>44</v>
       </c>
@@ -2954,16 +2956,16 @@
         <v>1</v>
       </c>
       <c r="I31" s="95" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J31" s="96" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K31" s="97" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L31" s="87" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -2975,13 +2977,13 @@
         <v>1</v>
       </c>
       <c r="J32" s="76" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K32" s="76" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L32" s="79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2993,16 +2995,16 @@
         <v>1</v>
       </c>
       <c r="J33" s="81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K33" s="81" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L33" s="84" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -3017,44 +3019,44 @@
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
-      <c r="J35" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>188</v>
+      <c r="J35" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="K35" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="L35" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="M35" s="122" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="E36" s="98"/>
+        <v>170</v>
+      </c>
+      <c r="E36" s="145"/>
       <c r="F36" s="69" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G36" s="70">
         <v>1</v>
       </c>
       <c r="I36" s="85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J36" s="86" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K36" s="72" t="s">
         <v>29</v>
       </c>
       <c r="L36" s="73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M36" s="87" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
@@ -3062,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K37" s="76" t="str">
         <f>+J7</f>
@@ -3072,7 +3074,7 @@
         <v>44290</v>
       </c>
       <c r="M37" s="79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3080,19 +3082,19 @@
         <v>2</v>
       </c>
       <c r="J38" s="81" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K38" s="81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L38" s="83">
         <v>44170</v>
       </c>
       <c r="M38" s="84" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I39" s="124"/>
       <c r="J39" s="123"/>
       <c r="K39" s="123"/>
@@ -3100,20 +3102,20 @@
       <c r="M39" s="123"/>
     </row>
     <row r="40" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J40" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>188</v>
+      <c r="J40" s="121" t="s">
+        <v>186</v>
+      </c>
+      <c r="K40" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="L40" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="M40" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="N40" s="122" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3122,28 +3124,28 @@
       </c>
       <c r="E41" s="98"/>
       <c r="F41" s="101" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G41" s="70">
         <v>2</v>
       </c>
       <c r="I41" s="85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J41" s="73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K41" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="L41" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="L41" s="96" t="s">
-        <v>72</v>
-      </c>
       <c r="M41" s="102" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N41" s="87" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
@@ -3154,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="104" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L42" s="76" t="str">
         <f>+J33</f>
@@ -3164,7 +3166,7 @@
         <v>2</v>
       </c>
       <c r="N42" s="79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3175,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="105" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L43" s="81" t="str">
         <f>+L42</f>
@@ -3185,7 +3187,7 @@
         <v>3</v>
       </c>
       <c r="N43" s="84" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
@@ -3196,7 +3198,7 @@
       <c r="M44" s="123"/>
       <c r="N44" s="123"/>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I45" s="123"/>
       <c r="J45" s="123"/>
       <c r="K45" s="126"/>
@@ -3205,96 +3207,98 @@
       <c r="N45" s="123"/>
     </row>
     <row r="46" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J46" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="V46" s="1" t="s">
-        <v>188</v>
+      <c r="J46" s="121" t="s">
+        <v>186</v>
+      </c>
+      <c r="K46" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="L46" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="M46" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="N46" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="O46" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="P46" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q46" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="R46" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="S46" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="T46" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="U46" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="V46" s="122" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D47" s="67" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E47" s="98"/>
       <c r="F47" s="101" t="s">
+        <v>173</v>
+      </c>
+      <c r="G47" s="70">
+        <v>2</v>
+      </c>
+      <c r="I47" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="J47" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="K47" s="106" t="s">
+        <v>174</v>
+      </c>
+      <c r="L47" s="106" t="s">
         <v>175</v>
       </c>
-      <c r="G47" s="70"/>
-      <c r="I47" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="J47" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="K47" s="106" t="s">
+      <c r="M47" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="L47" s="106" t="s">
+      <c r="N47" s="106" t="s">
         <v>177</v>
       </c>
-      <c r="M47" s="106" t="s">
+      <c r="O47" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="N47" s="106" t="s">
+      <c r="P47" s="106" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q47" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="R47" s="106" t="s">
         <v>179</v>
       </c>
-      <c r="O47" s="106" t="s">
-        <v>180</v>
-      </c>
-      <c r="P47" s="106" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q47" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="R47" s="106" t="s">
-        <v>181</v>
-      </c>
       <c r="S47" s="106" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T47" s="106" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U47" s="106" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V47" s="107" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
@@ -3306,37 +3310,37 @@
         <v>Ley General de Contabilidad</v>
       </c>
       <c r="K48" s="76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L48" s="76"/>
       <c r="M48" s="76"/>
       <c r="N48" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="O48" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="P48" s="76" t="s">
         <v>182</v>
-      </c>
-      <c r="O48" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="P48" s="76" t="s">
-        <v>184</v>
       </c>
       <c r="Q48" s="76">
         <f>M42</f>
         <v>2</v>
       </c>
       <c r="R48" s="76" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="S48" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="T48" s="135" t="s">
+        <v>184</v>
+      </c>
+      <c r="U48" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="T48" s="130" t="s">
-        <v>186</v>
-      </c>
-      <c r="U48" s="76" t="s">
-        <v>155</v>
-      </c>
       <c r="V48" s="79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="9:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3348,35 +3352,35 @@
         <v>Ley General de Contabilidad</v>
       </c>
       <c r="K49" s="81" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L49" s="81"/>
       <c r="M49" s="81"/>
       <c r="N49" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O49" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="P49" s="81" t="s">
         <v>182</v>
-      </c>
-      <c r="O49" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="P49" s="81" t="s">
-        <v>184</v>
       </c>
       <c r="Q49" s="81">
         <f>M43</f>
         <v>3</v>
       </c>
       <c r="R49" s="81" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="S49" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="T49" s="136"/>
+      <c r="U49" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="T49" s="131"/>
-      <c r="U49" s="81" t="s">
-        <v>155</v>
-      </c>
       <c r="V49" s="84" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3418,7 +3422,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="21"/>
     </row>
@@ -3427,54 +3431,54 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3482,21 +3486,21 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="C14" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
@@ -3505,16 +3509,16 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3526,7 +3530,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="C19" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="30">
         <v>44299</v>
@@ -3535,108 +3539,108 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="C20" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" s="34"/>
       <c r="D22" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28" s="34"/>
       <c r="D28" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E33" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E34" s="24"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="37" t="s">
-        <v>57</v>
-      </c>
       <c r="E35" s="37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E37" s="37"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" s="38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E38" s="37"/>
     </row>
@@ -3645,50 +3649,50 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C42" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="34"/>
       <c r="D45" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G49" s="46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="3:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C50" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="42"/>
@@ -3697,12 +3701,12 @@
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D51" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="E51" s="134" t="s">
-        <v>132</v>
-      </c>
-      <c r="F51" s="135"/>
+        <v>116</v>
+      </c>
+      <c r="E51" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="138"/>
       <c r="G51" s="32"/>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
@@ -3715,7 +3719,7 @@
       <c r="D53" s="31"/>
       <c r="E53" s="44"/>
       <c r="F53" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G53" s="32"/>
     </row>
@@ -3733,7 +3737,7 @@
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G57" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
@@ -3745,12 +3749,12 @@
     </row>
     <row r="61" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D61" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" s="139" t="s">
         <v>124</v>
       </c>
-      <c r="E61" s="136" t="s">
-        <v>126</v>
-      </c>
-      <c r="F61" s="137"/>
+      <c r="F61" s="140"/>
       <c r="G61" s="32"/>
     </row>
     <row r="62" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3761,12 +3765,12 @@
     </row>
     <row r="63" spans="3:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D63" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="E63" s="136" t="s">
-        <v>134</v>
-      </c>
-      <c r="F63" s="137"/>
+        <v>119</v>
+      </c>
+      <c r="E63" s="139" t="s">
+        <v>132</v>
+      </c>
+      <c r="F63" s="140"/>
       <c r="G63" s="32"/>
     </row>
     <row r="64" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3777,12 +3781,12 @@
     </row>
     <row r="65" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D65" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="E65" s="134" t="s">
-        <v>133</v>
-      </c>
-      <c r="F65" s="135"/>
+        <v>123</v>
+      </c>
+      <c r="E65" s="137" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" s="138"/>
       <c r="G65" s="32"/>
     </row>
     <row r="66" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3796,7 +3800,7 @@
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
       <c r="G67" s="46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3819,19 +3823,19 @@
     </row>
     <row r="71" spans="3:10" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D71" s="48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E71" s="48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F71" s="48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G71" s="48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H71" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
@@ -3839,22 +3843,22 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F72">
         <v>2</v>
       </c>
       <c r="G72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H72" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I72" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J72" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.25">
@@ -3874,15 +3878,15 @@
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C80" s="57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F81" s="50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G81" s="56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
@@ -3894,15 +3898,15 @@
     </row>
     <row r="83" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C83" s="50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D83" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="E83" s="134" t="s">
-        <v>138</v>
-      </c>
-      <c r="F83" s="135"/>
+        <v>135</v>
+      </c>
+      <c r="E83" s="137" t="s">
+        <v>136</v>
+      </c>
+      <c r="F83" s="138"/>
       <c r="G83" s="32"/>
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.25">
@@ -3913,12 +3917,12 @@
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D85" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="E85" s="134" t="s">
-        <v>143</v>
-      </c>
-      <c r="F85" s="135"/>
+        <v>138</v>
+      </c>
+      <c r="E85" s="137" t="s">
+        <v>141</v>
+      </c>
+      <c r="F85" s="138"/>
       <c r="G85" s="32"/>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.25">
@@ -3929,15 +3933,15 @@
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D87" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="E87" s="138">
+        <v>139</v>
+      </c>
+      <c r="E87" s="141">
         <v>44306</v>
       </c>
-      <c r="F87" s="135"/>
+      <c r="F87" s="138"/>
       <c r="G87" s="32"/>
       <c r="H87" s="58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.25">
@@ -3948,12 +3952,12 @@
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D89" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="E89" s="134" t="s">
         <v>143</v>
       </c>
-      <c r="F89" s="135"/>
+      <c r="E89" s="137" t="s">
+        <v>141</v>
+      </c>
+      <c r="F89" s="138"/>
       <c r="G89" s="32"/>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.25">
@@ -3964,12 +3968,12 @@
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D91" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E91" s="137" t="s">
         <v>142</v>
       </c>
-      <c r="E91" s="134" t="s">
-        <v>144</v>
-      </c>
-      <c r="F91" s="135"/>
+      <c r="F91" s="138"/>
       <c r="G91" s="32"/>
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.25">
@@ -3980,12 +3984,12 @@
     </row>
     <row r="93" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D93" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E93" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="E93" s="134" t="s">
-        <v>150</v>
-      </c>
-      <c r="F93" s="135"/>
+      <c r="F93" s="138"/>
       <c r="G93" s="32"/>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.25">
@@ -3996,12 +4000,12 @@
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D95" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="E95" s="134" t="s">
-        <v>160</v>
-      </c>
-      <c r="F95" s="135"/>
+        <v>147</v>
+      </c>
+      <c r="E95" s="137" t="s">
+        <v>158</v>
+      </c>
+      <c r="F95" s="138"/>
       <c r="G95" s="32"/>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.25">
@@ -4014,7 +4018,7 @@
       <c r="D97" s="31"/>
       <c r="E97" s="44"/>
       <c r="G97" s="56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="4:9" x14ac:dyDescent="0.25">
@@ -4025,10 +4029,10 @@
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F100" s="56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G100" s="56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4039,15 +4043,15 @@
     </row>
     <row r="102" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D102" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E102" s="132" t="s">
-        <v>163</v>
-      </c>
-      <c r="F102" s="133"/>
+        <v>119</v>
+      </c>
+      <c r="E102" s="142" t="s">
+        <v>161</v>
+      </c>
+      <c r="F102" s="143"/>
       <c r="G102" s="32"/>
       <c r="I102" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4058,12 +4062,12 @@
     </row>
     <row r="104" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D104" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E104" s="132" t="s">
-        <v>161</v>
-      </c>
-      <c r="F104" s="133"/>
+        <v>150</v>
+      </c>
+      <c r="E104" s="142" t="s">
+        <v>159</v>
+      </c>
+      <c r="F104" s="143"/>
       <c r="G104" s="32"/>
     </row>
     <row r="105" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4074,12 +4078,12 @@
     </row>
     <row r="106" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D106" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="E106" s="132" t="s">
-        <v>153</v>
-      </c>
-      <c r="F106" s="133"/>
+        <v>123</v>
+      </c>
+      <c r="E106" s="142" t="s">
+        <v>151</v>
+      </c>
+      <c r="F106" s="143"/>
       <c r="G106" s="32"/>
     </row>
     <row r="107" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4090,12 +4094,12 @@
     </row>
     <row r="108" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D108" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E108" s="132" t="s">
-        <v>164</v>
-      </c>
-      <c r="F108" s="133"/>
+        <v>152</v>
+      </c>
+      <c r="E108" s="142" t="s">
+        <v>162</v>
+      </c>
+      <c r="F108" s="143"/>
       <c r="G108" s="32"/>
     </row>
     <row r="109" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4106,12 +4110,12 @@
     </row>
     <row r="110" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D110" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="E110" s="132" t="s">
-        <v>155</v>
-      </c>
-      <c r="F110" s="133"/>
+        <v>123</v>
+      </c>
+      <c r="E110" s="142" t="s">
+        <v>153</v>
+      </c>
+      <c r="F110" s="143"/>
       <c r="G110" s="32"/>
     </row>
     <row r="111" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4122,12 +4126,12 @@
     </row>
     <row r="112" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D112" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="E112" s="132" t="s">
-        <v>158</v>
-      </c>
-      <c r="F112" s="133"/>
+        <v>49</v>
+      </c>
+      <c r="E112" s="142" t="s">
+        <v>156</v>
+      </c>
+      <c r="F112" s="143"/>
       <c r="G112" s="32"/>
     </row>
     <row r="113" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4135,7 +4139,7 @@
       <c r="E113" s="55"/>
       <c r="F113" s="55"/>
       <c r="G113" s="46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4159,22 +4163,22 @@
     <row r="117" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C117" s="21"/>
       <c r="D117" s="108" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E117" s="109" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F117" s="109" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G117" s="109" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H117" s="109" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I117" s="109" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J117" s="109"/>
       <c r="K117" s="117"/>
@@ -4187,22 +4191,22 @@
         <v>2</v>
       </c>
       <c r="F118" s="44" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G118" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H118" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I118" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J118" s="111" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K118" s="112" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="3:11" x14ac:dyDescent="0.25">
@@ -4243,6 +4247,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E106:F106"/>
     <mergeCell ref="E95:F95"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="E61:F61"/>
@@ -4254,12 +4264,6 @@
     <mergeCell ref="E89:F89"/>
     <mergeCell ref="E91:F91"/>
     <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E106:F106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
